--- a/resultados/tcc_results/FIXEDRESULTS.xlsx
+++ b/resultados/tcc_results/FIXEDRESULTS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodri\Desktop\tcc_results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodri\OneDrive\Documentos\GitHub\TCC-App\resultados\tcc_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CEFE705-C763-47B1-8268-54B2D9AD23A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F349F201-0252-49EF-8A29-00011A20FC77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -342,10 +342,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -353,6 +351,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -362,17 +383,12 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -382,24 +398,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4987,8 +4985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65CA7BE4-67BB-4421-B7EA-3C0375F212D0}">
   <dimension ref="B6:AC47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5009,46 +5007,46 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:29" ht="21" x14ac:dyDescent="0.35">
-      <c r="B6" s="9"/>
-      <c r="C6" s="20" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="20" t="s">
+      <c r="D6" s="33"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="W6" s="19"/>
-      <c r="X6" s="19"/>
-      <c r="Y6" s="19"/>
-      <c r="Z6" s="19"/>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="19"/>
-      <c r="AC6" s="19"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="13"/>
     </row>
     <row r="7" spans="2:29" ht="21" x14ac:dyDescent="0.35">
-      <c r="B7" s="13"/>
-      <c r="C7" s="29" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="8"/>
       <c r="H7" s="31" t="s">
         <v>13</v>
       </c>
@@ -5061,431 +5059,424 @@
         <v>12</v>
       </c>
       <c r="M7" s="31"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="W7" s="19"/>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="19"/>
-      <c r="Z7" s="19"/>
-      <c r="AA7" s="19"/>
-      <c r="AB7" s="19"/>
-      <c r="AC7" s="19"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="13"/>
     </row>
     <row r="8" spans="2:29" ht="21" x14ac:dyDescent="0.35">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="14">
         <v>1.097175</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="14">
         <v>1.0850010000000001</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="15">
         <v>1.098398</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="8" t="s">
+      <c r="G8" s="10"/>
+      <c r="H8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="L8" s="8" t="s">
+      <c r="L8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="M8" s="8" t="s">
+      <c r="M8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="W8" s="19"/>
-      <c r="X8" s="19"/>
-      <c r="Y8" s="19"/>
-      <c r="Z8" s="19"/>
-      <c r="AA8" s="19"/>
-      <c r="AB8" s="19"/>
-      <c r="AC8" s="19"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="13"/>
     </row>
     <row r="9" spans="2:29" ht="21" x14ac:dyDescent="0.35">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="16">
         <v>1.1117539999999999</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="16">
         <v>1.082951</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="17">
         <v>1.098258</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="11">
         <v>1.097175</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="1">
         <v>2.0740999999999999E-2</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="11">
         <v>1.0850010000000001</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="1">
         <v>1.2082000000000001E-2</v>
       </c>
-      <c r="L9" s="16">
+      <c r="L9" s="11">
         <v>1.098398</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="1">
         <v>1.7349E-2</v>
       </c>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="W9" s="19"/>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="19"/>
-      <c r="Z9" s="19"/>
-      <c r="AA9" s="19"/>
-      <c r="AB9" s="19"/>
-      <c r="AC9" s="19"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13"/>
     </row>
     <row r="10" spans="2:29" ht="21" x14ac:dyDescent="0.35">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="16">
         <v>1.109532</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="16">
         <v>1.095505</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="17">
         <v>1.1053729999999999</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="11">
         <v>1.1117539999999999</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="1">
         <v>2.613E-2</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="11">
         <v>1.082951</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="1">
         <v>1.2803E-2</v>
       </c>
-      <c r="L10" s="16">
+      <c r="L10" s="11">
         <v>1.098258</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="1">
         <v>4.5380000000000004E-3</v>
       </c>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="W10" s="19"/>
-      <c r="X10" s="19"/>
-      <c r="Y10" s="19"/>
-      <c r="Z10" s="19"/>
-      <c r="AA10" s="19"/>
-      <c r="AB10" s="19"/>
-      <c r="AC10" s="19"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="13"/>
     </row>
     <row r="11" spans="2:29" ht="21" x14ac:dyDescent="0.35">
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="16">
         <v>1.1071299999999999</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="16">
         <v>1.097634</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="17">
         <v>1.105369</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="11">
         <v>1.109532</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="1">
         <v>1.5866999999999999E-2</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="11">
         <v>1.095505</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="1">
         <v>1.4539E-2</v>
       </c>
-      <c r="L11" s="16">
+      <c r="L11" s="11">
         <v>1.1053729999999999</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="1">
         <v>1.0540000000000001E-2</v>
       </c>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="19"/>
-      <c r="Z11" s="19"/>
-      <c r="AA11" s="19"/>
-      <c r="AB11" s="19"/>
-      <c r="AC11" s="19"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="13"/>
     </row>
     <row r="12" spans="2:29" ht="21" x14ac:dyDescent="0.35">
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="16">
         <v>1.0821879999999999</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="16">
         <v>1.0786469999999999</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="17">
         <v>1.0922639999999999</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="11">
         <v>1.1071299999999999</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="1">
         <v>2.5266E-2</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12" s="11">
         <v>1.097634</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="1">
         <v>2.0513E-2</v>
       </c>
-      <c r="L12" s="16">
+      <c r="L12" s="11">
         <v>1.105369</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="1">
         <v>1.0189E-2</v>
       </c>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="19"/>
-      <c r="Z12" s="19"/>
-      <c r="AA12" s="19"/>
-      <c r="AB12" s="19"/>
-      <c r="AC12" s="19"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="13"/>
     </row>
     <row r="13" spans="2:29" ht="21" x14ac:dyDescent="0.35">
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="18">
         <v>2.142331</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="18">
         <v>2.1331150000000001</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="19">
         <v>2.1625070000000002</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="11">
         <v>1.0821879999999999</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="1">
         <v>1.3178E-2</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J13" s="11">
         <v>1.0786469999999999</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="1">
         <v>9.7820000000000008E-3</v>
       </c>
-      <c r="L13" s="16">
+      <c r="L13" s="11">
         <v>1.0922639999999999</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M13" s="1">
         <v>1.3166000000000001E-2</v>
       </c>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="W13" s="19"/>
-      <c r="X13" s="19"/>
-      <c r="Y13" s="19"/>
-      <c r="Z13" s="19"/>
-      <c r="AA13" s="19"/>
-      <c r="AB13" s="19"/>
-      <c r="AC13" s="19"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="13"/>
     </row>
     <row r="14" spans="2:29" ht="21" x14ac:dyDescent="0.35">
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="12">
         <v>2.142331</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="2">
         <v>9.5169999999999994E-3</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J14" s="12">
         <v>2.1331150000000001</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="2">
         <v>1.3065E-2</v>
       </c>
-      <c r="L14" s="17">
+      <c r="L14" s="12">
         <v>2.1625070000000002</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14" s="2">
         <v>2.3785000000000001E-2</v>
       </c>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="W14" s="19"/>
-      <c r="X14" s="19"/>
-      <c r="Y14" s="19"/>
-      <c r="Z14" s="19"/>
-      <c r="AA14" s="19"/>
-      <c r="AB14" s="19"/>
-      <c r="AC14" s="19"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="13"/>
     </row>
     <row r="17" spans="2:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="B17" s="9"/>
-      <c r="C17" s="20" t="s">
+      <c r="B17" s="7"/>
+      <c r="C17" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="10" t="s">
+      <c r="D17" s="33"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="36"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="26"/>
     </row>
     <row r="18" spans="2:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="B18" s="13"/>
-      <c r="C18" s="29" t="s">
+      <c r="B18" s="8"/>
+      <c r="C18" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="29" t="s">
+      <c r="E18" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="18" t="s">
+      <c r="G18" s="8"/>
+      <c r="H18" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18" t="s">
+      <c r="I18" s="30"/>
+      <c r="J18" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18" t="s">
+      <c r="K18" s="30"/>
+      <c r="L18" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="M18" s="18"/>
+      <c r="M18" s="30"/>
     </row>
     <row r="19" spans="2:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="4">
         <v>11.635412000000001</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="4">
         <v>11.828343</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="4">
         <v>11.221653</v>
       </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="8" t="s">
+      <c r="G19" s="10"/>
+      <c r="H19" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="I19" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J19" s="8" t="s">
+      <c r="J19" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K19" s="8" t="s">
+      <c r="K19" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="L19" s="8" t="s">
+      <c r="L19" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="M19" s="8" t="s">
+      <c r="M19" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="2:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="4">
         <v>11.328389</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="4">
         <v>11.726252000000001</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="4">
         <v>11.365137000000001</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="H20" s="16">
+      <c r="H20" s="11">
         <v>11.635412000000001</v>
       </c>
       <c r="I20">
         <v>0.16560800000000001</v>
       </c>
-      <c r="J20" s="16">
+      <c r="J20" s="11">
         <v>11.828343</v>
       </c>
       <c r="K20">
         <v>0.25575799999999999</v>
       </c>
-      <c r="L20" s="16">
+      <c r="L20" s="11">
         <v>11.221653</v>
       </c>
       <c r="M20">
@@ -5493,34 +5484,34 @@
       </c>
     </row>
     <row r="21" spans="2:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="4">
         <v>71.722611999999998</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="4">
         <v>73.444266999999996</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="4">
         <v>70.629108000000002</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H21" s="16">
+      <c r="H21" s="11">
         <v>11.328389</v>
       </c>
       <c r="I21">
         <v>0.111667</v>
       </c>
-      <c r="J21" s="16">
+      <c r="J21" s="11">
         <v>11.726252000000001</v>
       </c>
       <c r="K21">
         <v>6.0876E-2</v>
       </c>
-      <c r="L21" s="16">
+      <c r="L21" s="11">
         <v>11.365137000000001</v>
       </c>
       <c r="M21">
@@ -5528,34 +5519,34 @@
       </c>
     </row>
     <row r="22" spans="2:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="4">
         <v>71.751592000000002</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="4">
         <v>73.414461000000003</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="4">
         <v>73.081235000000007</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="G22" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H22" s="16">
+      <c r="H22" s="11">
         <v>71.722611999999998</v>
       </c>
       <c r="I22">
         <v>3.8636460000000001</v>
       </c>
-      <c r="J22" s="16">
+      <c r="J22" s="11">
         <v>73.444266999999996</v>
       </c>
       <c r="K22">
         <v>3.7228590000000001</v>
       </c>
-      <c r="L22" s="16">
+      <c r="L22" s="11">
         <v>70.629108000000002</v>
       </c>
       <c r="M22">
@@ -5563,34 +5554,34 @@
       </c>
     </row>
     <row r="23" spans="2:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="4">
         <v>8.8674339999999994</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="4">
         <v>8.6732139999999998</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="4">
         <v>8.7755910000000004</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="G23" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H23" s="16">
+      <c r="H23" s="11">
         <v>71.751592000000002</v>
       </c>
       <c r="I23">
         <v>3.7115939999999998</v>
       </c>
-      <c r="J23" s="16">
+      <c r="J23" s="11">
         <v>73.414461000000003</v>
       </c>
       <c r="K23">
         <v>3.6877110000000002</v>
       </c>
-      <c r="L23" s="16">
+      <c r="L23" s="11">
         <v>73.081235000000007</v>
       </c>
       <c r="M23">
@@ -5598,34 +5589,34 @@
       </c>
     </row>
     <row r="24" spans="2:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="5">
         <v>64.986614000000003</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="5">
         <v>65.494535999999997</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="5">
         <v>66.254694000000001</v>
       </c>
-      <c r="G24" s="14" t="s">
+      <c r="G24" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H24" s="16">
+      <c r="H24" s="11">
         <v>8.8674339999999994</v>
       </c>
       <c r="I24">
         <v>6.1213999999999998E-2</v>
       </c>
-      <c r="J24" s="16">
+      <c r="J24" s="11">
         <v>8.6732139999999998</v>
       </c>
       <c r="K24">
         <v>6.5307000000000004E-2</v>
       </c>
-      <c r="L24" s="16">
+      <c r="L24" s="11">
         <v>8.7755910000000004</v>
       </c>
       <c r="M24">
@@ -5633,22 +5624,22 @@
       </c>
     </row>
     <row r="25" spans="2:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="G25" s="14" t="s">
+      <c r="G25" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H25" s="17">
+      <c r="H25" s="12">
         <v>64.986614000000003</v>
       </c>
       <c r="I25">
         <v>0.65843399999999996</v>
       </c>
-      <c r="J25" s="17">
+      <c r="J25" s="12">
         <v>65.494535999999997</v>
       </c>
       <c r="K25">
         <v>0.39190900000000001</v>
       </c>
-      <c r="L25" s="17">
+      <c r="L25" s="12">
         <v>66.254694000000001</v>
       </c>
       <c r="M25">
@@ -5656,111 +5647,111 @@
       </c>
     </row>
     <row r="28" spans="2:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="B28" s="9"/>
-      <c r="C28" s="20" t="s">
+      <c r="B28" s="7"/>
+      <c r="C28" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="10" t="s">
+      <c r="D28" s="33"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="36"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="26"/>
     </row>
     <row r="29" spans="2:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="B29" s="13"/>
-      <c r="C29" s="29" t="s">
+      <c r="B29" s="8"/>
+      <c r="C29" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="29" t="s">
+      <c r="D29" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="29" t="s">
+      <c r="E29" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G29" s="13"/>
-      <c r="H29" s="18" t="s">
+      <c r="G29" s="8"/>
+      <c r="H29" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18" t="s">
+      <c r="I29" s="30"/>
+      <c r="J29" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18" t="s">
+      <c r="K29" s="30"/>
+      <c r="L29" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="M29" s="18"/>
+      <c r="M29" s="30"/>
     </row>
     <row r="30" spans="2:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="3">
         <v>1.072719</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="3">
         <v>1.0636650000000001</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="3">
         <v>1.077372</v>
       </c>
-      <c r="G30" s="15"/>
-      <c r="H30" s="8" t="s">
+      <c r="G30" s="10"/>
+      <c r="H30" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I30" s="8" t="s">
+      <c r="I30" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J30" s="8" t="s">
+      <c r="J30" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K30" s="8" t="s">
+      <c r="K30" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="L30" s="8" t="s">
+      <c r="L30" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="M30" s="8" t="s">
+      <c r="M30" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="31" spans="2:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="4">
         <v>1.086506</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="4">
         <v>1.061517</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="4">
         <v>1.0811649999999999</v>
       </c>
-      <c r="G31" s="14" t="s">
+      <c r="G31" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="H31" s="16">
+      <c r="H31" s="11">
         <v>1.072719</v>
       </c>
       <c r="I31">
         <v>1.1133000000000001E-2</v>
       </c>
-      <c r="J31" s="16">
+      <c r="J31" s="11">
         <v>1.0636650000000001</v>
       </c>
       <c r="K31">
         <v>3.7959999999999999E-3</v>
       </c>
-      <c r="L31" s="16">
+      <c r="L31" s="11">
         <v>1.077372</v>
       </c>
       <c r="M31">
@@ -5768,34 +5759,34 @@
       </c>
     </row>
     <row r="32" spans="2:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="4">
         <v>2.1811530000000001</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="4">
         <v>2.1369310000000001</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="4">
         <v>2.1692260000000001</v>
       </c>
-      <c r="G32" s="14" t="s">
+      <c r="G32" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H32" s="16">
+      <c r="H32" s="11">
         <v>1.086506</v>
       </c>
       <c r="I32">
         <v>3.5020000000000003E-2</v>
       </c>
-      <c r="J32" s="16">
+      <c r="J32" s="11">
         <v>1.061517</v>
       </c>
       <c r="K32">
         <v>6.5209999999999999E-3</v>
       </c>
-      <c r="L32" s="16">
+      <c r="L32" s="11">
         <v>1.0811649999999999</v>
       </c>
       <c r="M32">
@@ -5803,34 +5794,34 @@
       </c>
     </row>
     <row r="33" spans="2:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="4">
         <v>2.155726</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="4">
         <v>2.1418309999999998</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="4">
         <v>2.170471</v>
       </c>
-      <c r="G33" s="14" t="s">
+      <c r="G33" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H33" s="16">
+      <c r="H33" s="11">
         <v>2.1811530000000001</v>
       </c>
       <c r="I33">
         <v>5.2356E-2</v>
       </c>
-      <c r="J33" s="16">
+      <c r="J33" s="11">
         <v>2.1369310000000001</v>
       </c>
       <c r="K33">
         <v>1.1587999999999999E-2</v>
       </c>
-      <c r="L33" s="16">
+      <c r="L33" s="11">
         <v>2.1692260000000001</v>
       </c>
       <c r="M33">
@@ -5838,34 +5829,34 @@
       </c>
     </row>
     <row r="34" spans="2:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="4">
         <v>1.0550250000000001</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="4">
         <v>1.0449329999999999</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="4">
         <v>1.0648919999999999</v>
       </c>
-      <c r="G34" s="14" t="s">
+      <c r="G34" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H34" s="16">
+      <c r="H34" s="11">
         <v>2.155726</v>
       </c>
       <c r="I34">
         <v>2.4101999999999998E-2</v>
       </c>
-      <c r="J34" s="16">
+      <c r="J34" s="11">
         <v>2.1418309999999998</v>
       </c>
       <c r="K34">
         <v>1.0532E-2</v>
       </c>
-      <c r="L34" s="16">
+      <c r="L34" s="11">
         <v>2.170471</v>
       </c>
       <c r="M34">
@@ -5873,34 +5864,34 @@
       </c>
     </row>
     <row r="35" spans="2:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="5">
         <v>2.1353559999999998</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="5">
         <v>2.1154389999999998</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="5">
         <v>2.1454710000000001</v>
       </c>
-      <c r="G35" s="14" t="s">
+      <c r="G35" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H35" s="16">
+      <c r="H35" s="11">
         <v>1.0550250000000001</v>
       </c>
       <c r="I35">
         <v>7.9450000000000007E-3</v>
       </c>
-      <c r="J35" s="16">
+      <c r="J35" s="11">
         <v>1.0449329999999999</v>
       </c>
       <c r="K35">
         <v>4.5199999999999997E-3</v>
       </c>
-      <c r="L35" s="16">
+      <c r="L35" s="11">
         <v>1.0648919999999999</v>
       </c>
       <c r="M35">
@@ -5908,22 +5899,22 @@
       </c>
     </row>
     <row r="36" spans="2:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="G36" s="14" t="s">
+      <c r="G36" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H36" s="17">
+      <c r="H36" s="12">
         <v>2.1353559999999998</v>
       </c>
       <c r="I36">
         <v>1.5332E-2</v>
       </c>
-      <c r="J36" s="17">
+      <c r="J36" s="12">
         <v>2.1154389999999998</v>
       </c>
       <c r="K36">
         <v>7.9019999999999993E-3</v>
       </c>
-      <c r="L36" s="17">
+      <c r="L36" s="12">
         <v>2.1454710000000001</v>
       </c>
       <c r="M36">
@@ -5931,111 +5922,111 @@
       </c>
     </row>
     <row r="39" spans="2:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="B39" s="9"/>
-      <c r="C39" s="20" t="s">
+      <c r="B39" s="7"/>
+      <c r="C39" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="21"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="10" t="s">
+      <c r="D39" s="33"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="36"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="28"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="26"/>
     </row>
     <row r="40" spans="2:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="B40" s="13"/>
-      <c r="C40" s="29" t="s">
+      <c r="B40" s="8"/>
+      <c r="C40" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D40" s="29" t="s">
+      <c r="D40" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E40" s="29" t="s">
+      <c r="E40" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G40" s="13"/>
-      <c r="H40" s="18" t="s">
+      <c r="G40" s="8"/>
+      <c r="H40" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18" t="s">
+      <c r="I40" s="30"/>
+      <c r="J40" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18" t="s">
+      <c r="K40" s="30"/>
+      <c r="L40" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="M40" s="18"/>
+      <c r="M40" s="30"/>
     </row>
     <row r="41" spans="2:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="3">
         <v>1.0952090000000001</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="3">
         <v>1.0749489999999999</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="3">
         <v>1.067939</v>
       </c>
-      <c r="G41" s="15"/>
-      <c r="H41" s="8" t="s">
+      <c r="G41" s="10"/>
+      <c r="H41" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I41" s="8" t="s">
+      <c r="I41" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J41" s="8" t="s">
+      <c r="J41" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K41" s="8" t="s">
+      <c r="K41" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="L41" s="8" t="s">
+      <c r="L41" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="M41" s="8" t="s">
+      <c r="M41" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="42" spans="2:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="4">
         <v>1.089232</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="4">
         <v>1.081178</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="4">
         <v>1.0708340000000001</v>
       </c>
-      <c r="G42" s="14" t="s">
+      <c r="G42" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="H42" s="16">
+      <c r="H42" s="11">
         <v>1.0952090000000001</v>
       </c>
       <c r="I42">
         <v>3.9069E-2</v>
       </c>
-      <c r="J42" s="16">
+      <c r="J42" s="11">
         <v>1.0749489999999999</v>
       </c>
       <c r="K42">
         <v>5.3249999999999999E-3</v>
       </c>
-      <c r="L42" s="16">
+      <c r="L42" s="11">
         <v>1.067939</v>
       </c>
       <c r="M42">
@@ -6043,34 +6034,34 @@
       </c>
     </row>
     <row r="43" spans="2:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="4">
         <v>2.1394980000000001</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="4">
         <v>2.1327310000000002</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="4">
         <v>2.132495</v>
       </c>
-      <c r="G43" s="14" t="s">
+      <c r="G43" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H43" s="16">
+      <c r="H43" s="11">
         <v>1.089232</v>
       </c>
       <c r="I43">
         <v>2.8080999999999998E-2</v>
       </c>
-      <c r="J43" s="16">
+      <c r="J43" s="11">
         <v>1.081178</v>
       </c>
       <c r="K43">
         <v>1.0576E-2</v>
       </c>
-      <c r="L43" s="16">
+      <c r="L43" s="11">
         <v>1.0708340000000001</v>
       </c>
       <c r="M43">
@@ -6078,34 +6069,34 @@
       </c>
     </row>
     <row r="44" spans="2:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="4">
         <v>2.1346690000000001</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="4">
         <v>2.1336810000000002</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="4">
         <v>2.1324930000000002</v>
       </c>
-      <c r="G44" s="14" t="s">
+      <c r="G44" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H44" s="16">
+      <c r="H44" s="11">
         <v>2.1394980000000001</v>
       </c>
       <c r="I44">
         <v>2.1524999999999999E-2</v>
       </c>
-      <c r="J44" s="16">
+      <c r="J44" s="11">
         <v>2.1327310000000002</v>
       </c>
       <c r="K44">
         <v>1.4942E-2</v>
       </c>
-      <c r="L44" s="16">
+      <c r="L44" s="11">
         <v>2.132495</v>
       </c>
       <c r="M44">
@@ -6113,34 +6104,34 @@
       </c>
     </row>
     <row r="45" spans="2:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="4">
         <v>1.0366880000000001</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="4">
         <v>1.0333760000000001</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45" s="4">
         <v>1.0465420000000001</v>
       </c>
-      <c r="G45" s="14" t="s">
+      <c r="G45" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H45" s="16">
+      <c r="H45" s="11">
         <v>2.1346690000000001</v>
       </c>
       <c r="I45">
         <v>1.5039E-2</v>
       </c>
-      <c r="J45" s="16">
+      <c r="J45" s="11">
         <v>2.1336810000000002</v>
       </c>
       <c r="K45">
         <v>1.7392999999999999E-2</v>
       </c>
-      <c r="L45" s="16">
+      <c r="L45" s="11">
         <v>2.1324930000000002</v>
       </c>
       <c r="M45">
@@ -6148,34 +6139,34 @@
       </c>
     </row>
     <row r="46" spans="2:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="5">
         <v>2.106077</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D46" s="5">
         <v>2.095253</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46" s="5">
         <v>2.1144509999999999</v>
       </c>
-      <c r="G46" s="14" t="s">
+      <c r="G46" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H46" s="16">
+      <c r="H46" s="11">
         <v>1.0366880000000001</v>
       </c>
       <c r="I46">
         <v>9.0069999999999994E-3</v>
       </c>
-      <c r="J46" s="16">
+      <c r="J46" s="11">
         <v>1.0333760000000001</v>
       </c>
       <c r="K46">
         <v>7.7749999999999998E-3</v>
       </c>
-      <c r="L46" s="16">
+      <c r="L46" s="11">
         <v>1.0465420000000001</v>
       </c>
       <c r="M46">
@@ -6183,22 +6174,22 @@
       </c>
     </row>
     <row r="47" spans="2:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="G47" s="14" t="s">
+      <c r="G47" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H47" s="17">
+      <c r="H47" s="12">
         <v>2.106077</v>
       </c>
       <c r="I47">
         <v>4.5232000000000001E-2</v>
       </c>
-      <c r="J47" s="17">
+      <c r="J47" s="12">
         <v>2.095253</v>
       </c>
       <c r="K47">
         <v>1.0864E-2</v>
       </c>
-      <c r="L47" s="17">
+      <c r="L47" s="12">
         <v>2.1144509999999999</v>
       </c>
       <c r="M47">
@@ -6239,16 +6230,9 @@
     </scenario>
   </scenarios>
   <mergeCells count="20">
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="H39:M39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="H7:I7"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="C28:E28"/>
     <mergeCell ref="C39:E39"/>
@@ -6256,9 +6240,16 @@
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="L18:M18"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="H39:M39"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
